--- a/TechLab Voorraad 4-3-2019.xlsx
+++ b/TechLab Voorraad 4-3-2019.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramg\Hogeschool Rotterdam\Ricardo Stam - Techlab algemeen gedeeld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanh\Google Drive\HR-Informatica\Github\TC1819_Verslengsnoer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="14_{C6D3A682-2FC4-4B31-8AA3-6AD24AC60D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0DB8ADCF-3889-498F-88DB-CEC573BD1B04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12165" xr2:uid="{50699BE7-1C76-8A41-B406-D92EB6F4EA30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12165"/>
   </bookViews>
   <sheets>
-    <sheet name="Electronics" sheetId="7" r:id="rId1"/>
-    <sheet name="Books" sheetId="6" r:id="rId2"/>
+    <sheet name="Users" sheetId="9" r:id="rId1"/>
+    <sheet name="Borrow" sheetId="8" r:id="rId2"/>
+    <sheet name="Electronics" sheetId="7" r:id="rId3"/>
+    <sheet name="Books" sheetId="6" r:id="rId4"/>
+    <sheet name="Statestieken" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="190">
   <si>
     <t>ProductId</t>
   </si>
@@ -550,12 +552,75 @@
   </si>
   <si>
     <t>vr-coma-vrpc</t>
+  </si>
+  <si>
+    <t>_ID</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>SCHOOL_EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>beheer</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>CLASSCODE</t>
+  </si>
+  <si>
+    <t>P_USER_ID</t>
+  </si>
+  <si>
+    <t>P_PRODUCT_ID</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -645,7 +710,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2C2BF05F-A2A0-41CB-BBE4-47A93B9F7EC3}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -957,11 +1022,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1250A6F4-1AFC-4B44-962C-3AA96429A94B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1681,8 +1875,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3B2470-90ED-40DB-B7FA-A06D85C28116}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2008,4 +2202,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TechLab Voorraad 4-3-2019.xlsx
+++ b/TechLab Voorraad 4-3-2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanh\Google Drive\HR-Informatica\Github\TC1819_Verslengsnoer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanh\Desktop\HR-Informatica\github\TC1819_Verslengsnoer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE261046-0325-46E9-8065-C0538F53607D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12168" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="9" r:id="rId1"/>
@@ -23,17 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="191">
   <si>
     <t>ProductId</t>
   </si>
@@ -615,12 +611,15 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -710,7 +709,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1022,24 +1021,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>169</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -1076,12 +1075,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>179</v>
       </c>
@@ -1092,20 +1091,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>169</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -1151,25 +1150,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -1876,23 +1875,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
     <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1908,8 +1907,11 @@
       <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1927,7 +1929,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -2205,12 +2207,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
